--- a/data/Contact_Recreation/MangawheroatRaukawaFallsCamp_456ec67ceb.xlsx
+++ b/data/Contact_Recreation/MangawheroatRaukawaFallsCamp_456ec67ceb.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">

--- a/data/Contact_Recreation/MangawheroatRaukawaFallsCamp_456ec67ceb.xlsx
+++ b/data/Contact_Recreation/MangawheroatRaukawaFallsCamp_456ec67ceb.xlsx
@@ -49,127 +49,127 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>&gt;9700</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>&lt;9</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5170</t>
-  </si>
-  <si>
-    <t>2990</t>
-  </si>
-  <si>
-    <t>3650</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>2064</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>1576</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>857</t>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>3300.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>2100.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>&gt;9700.0</t>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>&lt;9.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>613.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>5170.0</t>
+  </si>
+  <si>
+    <t>2990.0</t>
+  </si>
+  <si>
+    <t>3650.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>317.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>2064.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>1576.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>&lt;10.0</t>
+  </si>
+  <si>
+    <t>857.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
